--- a/biology/Zoologie/Hyla_meridionalis/Hyla_meridionalis.xlsx
+++ b/biology/Zoologie/Hyla_meridionalis/Hyla_meridionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla meridionalis, la rainette méridionale, est une espèce d'amphibiens de la famille des Hylidae[1]. Très proche parente de la rainette verte et de la rainette italienne, la méridionale s'en distingue par un chant plus lent et une bande latérale sombre qui souligne les yeux, mais s'arrête avant les antérieurs, ne se prolongeant pas sur les flancs[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla meridionalis, la rainette méridionale, est une espèce d'amphibiens de la famille des Hylidae. Très proche parente de la rainette verte et de la rainette italienne, la méridionale s'en distingue par un chant plus lent et une bande latérale sombre qui souligne les yeux, mais s'arrête avant les antérieurs, ne se prolongeant pas sur les flancs.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De petite taille, cette grenouille mesure moins de cinq centimètres. Elle est de couleur vert tendre, mais peut foncer jusqu'au brun sombre, surtout en période de reproduction.
 Certains individus perdent par mutation le pigment jaune de leur peau et sont alors bleus. La bande latérale sombre qui souligne les yeux ne se prolonge pas sur les flancs.
@@ -553,14 +567,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen occidental. Elle se rencontre généralement à basse et à moyenne altitude du niveau de la mer jusqu'à 800 m d'altitude, sauf au Maroc ou elle a été observée jusqu'à 2 650 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le bassin méditerranéen occidental. Elle se rencontre généralement à basse et à moyenne altitude du niveau de la mer jusqu'à 800 m d'altitude, sauf au Maroc ou elle a été observée jusqu'à 2 650 m.
 Dans les parties les plus sèches de sa répartition géographique (certaines régions d'Afrique du Nord et de la péninsule Ibérique), sa distribution est fragmentée en raison de la rareté d'habitat disponible.
 Deux populations sont observées :
 dans le sud de la France, à Monaco, la région côtière nord-ouest de l'Italie en Ligurie et dans le sud du Piémont, en Espagne, au Portugal. L'espèce est également présente sur les îles Canaries et à Madère, où elle a été introduite dans l'Antiquité. Elle a été aussi introduite à Minorque.
 en Afrique du Nord dans le nord du Maroc, le Nord de l'Algérie et le Nord de la Tunisie. La répartition en Algérie et en Tunisie est mal connue mais plusieurs auteurs ont mentionné que l'espèce se situe au sud de l'Atlas tellien.
-Selon les études génétiques de Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008[4] les populations nord-africaines forment une espèce distincte non nommée.
+Selon les études génétiques de Stöck, Dubey, Klütsch, Litvinchuk, Scheidt et Perrin en 2008 les populations nord-africaines forment une espèce distincte non nommée.
 </t>
         </is>
       </c>
@@ -589,7 +605,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction se déroule toujours dans des points d'eau comme des mares (temporaires ou non), des marais, des prés inondés, etc. Elle a généralement lieu en fin de l'hiver ou au printemps. Lors de la période de reproduction, les mâles se regroupent dans les points d'eau alentour, se retrouvant parfois plus d'une centaine dans un petit point d'eau. Les mâles possédant un sac vocal, ils vont dès la nuit tombée entonner un chant pour attirer les femelles, chant plutôt grave et qui s'entend de très loin.
 Lors de l'accouplement, le mâle agrippe la femelle au-dessus des épaules, par amplexus céphalique, grâce à de petites callosités nuptiales sur leurs pattes avant. La femelle relâche alors ses œufs dans le milieu, qui sont immédiatement fécondés par le mâle qui répand son sperme sur les œufs, c'est donc une reproduction par fécondation externe. Le femelle pondra ainsi jusqu'à 60 amas, contenant chacun une trentaine d’œufs.
@@ -621,12 +639,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hyla meridionalis a été décrite par le zoologiste allemand Oskar Boettger en 1874[5].
-La localité type est La Orotava, Tenerife, îles Canaris, Espagne.
-Synonymie
-Hyla arborea var. meridionalis Boettger, 1874
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Hyla meridionalis a été décrite par le zoologiste allemand Oskar Boettger en 1874.
+La localité type est La Orotava, Tenerife, îles Canaris, Espagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyla_meridionalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyla_meridionalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hyla arborea var. meridionalis Boettger, 1874
 Hyla perezii Boscá, 1880
 Hyla viridis var. meridionalis  Boettger, 1883
 Hyla barytonus Herón-Royer, 1884
